--- a/config_1.5/activity_year_config.xlsx
+++ b/config_1.5/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -500,11 +500,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>元旦福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝榜</t>
+    <t>元旦福利→欢乐福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝榜→星星排行榜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +570,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,25 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +621,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,69 +654,56 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1019,18 +988,18 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="31" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="24.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.875" style="4" customWidth="1"/>
     <col min="10" max="10" width="42.5" style="4" customWidth="1"/>
@@ -1042,9 +1011,9 @@
     <col min="16" max="16" width="40.625" style="4" customWidth="1"/>
     <col min="17" max="17" width="29.625" style="4" customWidth="1"/>
     <col min="18" max="18" width="16" style="4" customWidth="1"/>
-    <col min="19" max="19" width="21.875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="21.875" style="24" customWidth="1"/>
     <col min="20" max="20" width="18.375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="19.875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="19.875" style="24" customWidth="1"/>
     <col min="22" max="22" width="34" style="4" customWidth="1"/>
     <col min="23" max="16384" width="9" style="4"/>
   </cols>
@@ -1068,7 +1037,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1104,13 +1073,13 @@
       <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="21" t="s">
         <v>16</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="21" t="s">
         <v>18</v>
       </c>
       <c r="V1" s="6" t="s">
@@ -1136,7 +1105,7 @@
       <c r="F2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="26" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="4">
@@ -1160,13 +1129,13 @@
       <c r="R2" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="24">
         <v>1597102200</v>
       </c>
       <c r="T2" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="22">
         <v>1597679999</v>
       </c>
       <c r="V2" s="4" t="s">
@@ -1192,7 +1161,7 @@
       <c r="F3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H3" s="4">
@@ -1216,13 +1185,13 @@
       <c r="R3" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="24">
         <v>1597102200</v>
       </c>
       <c r="T3" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="22">
         <v>1597679999</v>
       </c>
       <c r="V3" s="4" t="s">
@@ -1248,7 +1217,7 @@
       <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="26" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="3">
@@ -1275,13 +1244,13 @@
       <c r="R4" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="24">
         <v>1597102200</v>
       </c>
       <c r="T4" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="22">
         <v>1597679999</v>
       </c>
       <c r="V4" s="3" t="s">
@@ -1307,7 +1276,7 @@
       <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="3">
@@ -1334,13 +1303,13 @@
       <c r="R5" s="7">
         <v>44054.3125</v>
       </c>
-      <c r="S5" s="4">
+      <c r="S5" s="24">
         <v>1597102200</v>
       </c>
       <c r="T5" s="7">
         <v>44060.999988425923</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="22">
         <v>1597679999</v>
       </c>
       <c r="V5" s="3" t="s">
@@ -1366,7 +1335,7 @@
       <c r="F6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="8">
@@ -1390,13 +1359,13 @@
       <c r="R6" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S6" s="8">
+      <c r="S6" s="23">
         <v>1597707000</v>
       </c>
       <c r="T6" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U6" s="8">
+      <c r="U6" s="23">
         <v>1598284799</v>
       </c>
       <c r="V6" s="8" t="s">
@@ -1423,7 +1392,7 @@
       <c r="F7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="8">
@@ -1447,13 +1416,13 @@
       <c r="R7" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S7" s="8">
+      <c r="S7" s="23">
         <v>1597707000</v>
       </c>
       <c r="T7" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U7" s="8">
+      <c r="U7" s="23">
         <v>1598284799</v>
       </c>
       <c r="V7" s="8" t="s">
@@ -1479,7 +1448,7 @@
       <c r="F8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="8">
@@ -1506,13 +1475,13 @@
       <c r="R8" s="9">
         <v>44061.3125</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="23">
         <v>1597707000</v>
       </c>
       <c r="T8" s="10">
         <v>44067.999988425923</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="23">
         <v>1598284799</v>
       </c>
       <c r="V8" s="8" t="s">
@@ -1538,7 +1507,7 @@
       <c r="F9" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="8">
@@ -1562,13 +1531,13 @@
       <c r="R9" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="23">
         <v>1598311800</v>
       </c>
       <c r="T9" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="23">
         <v>1598889599</v>
       </c>
       <c r="V9" s="8" t="s">
@@ -1594,7 +1563,7 @@
       <c r="F10" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="8">
@@ -1618,13 +1587,13 @@
       <c r="R10" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S10" s="8">
+      <c r="S10" s="23">
         <v>1598311800</v>
       </c>
       <c r="T10" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U10" s="8">
+      <c r="U10" s="23">
         <v>1598889599</v>
       </c>
       <c r="V10" s="8" t="s">
@@ -1650,7 +1619,7 @@
       <c r="F11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="8">
@@ -1674,13 +1643,13 @@
       <c r="R11" s="7">
         <v>44068.3125</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="23">
         <v>1598311800</v>
       </c>
       <c r="T11" s="7">
         <v>44074.999988425923</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="23">
         <v>1598889599</v>
       </c>
       <c r="V11" s="8" t="s">
@@ -1694,55 +1663,58 @@
       <c r="B12" s="11">
         <v>11</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="17">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17">
+        <v>3</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="17">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="3">
-        <v>1</v>
-      </c>
-      <c r="P12" s="8" t="s">
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16">
+        <v>1</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="R12" s="9">
-        <v>44096.333333333336</v>
-      </c>
-      <c r="S12" s="8">
-        <v>1600732800</v>
-      </c>
-      <c r="T12" s="10">
-        <v>44102.999988425923</v>
-      </c>
-      <c r="U12" s="8">
-        <v>1601308799</v>
-      </c>
-      <c r="V12" s="8" t="s">
+      <c r="R12" s="18">
+        <v>44201.3125</v>
+      </c>
+      <c r="S12" s="20">
+        <v>1609804800</v>
+      </c>
+      <c r="T12" s="18">
+        <v>44207.999988425923</v>
+      </c>
+      <c r="U12" s="20">
+        <v>1610380799</v>
+      </c>
+      <c r="V12" s="17" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1765,7 +1737,7 @@
       <c r="F13" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="8">
@@ -1789,13 +1761,13 @@
       <c r="R13" s="10">
         <v>44103.3125</v>
       </c>
-      <c r="S13" s="8">
+      <c r="S13" s="23">
         <v>1601335800</v>
       </c>
       <c r="T13" s="10">
         <v>44109.999988425923</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="23">
         <v>1601913599</v>
       </c>
       <c r="V13" s="8" t="s">
@@ -1821,7 +1793,7 @@
       <c r="F14" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="8">
@@ -1845,13 +1817,13 @@
       <c r="R14" s="10">
         <v>44103.3125</v>
       </c>
-      <c r="S14" s="8">
+      <c r="S14" s="23">
         <v>1601335800</v>
       </c>
       <c r="T14" s="10">
         <v>44109.999988425923</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="23">
         <v>1601913599</v>
       </c>
       <c r="V14" s="4" t="s">
@@ -1874,7 +1846,7 @@
       <c r="E15" s="8">
         <v>3</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="8">
@@ -1898,139 +1870,139 @@
       <c r="R15" s="10">
         <v>44103.3125</v>
       </c>
-      <c r="S15" s="8">
+      <c r="S15" s="23">
         <v>1601335800</v>
       </c>
       <c r="T15" s="10">
         <v>44109.999988425923</v>
       </c>
-      <c r="U15" s="8">
+      <c r="U15" s="23">
         <v>1601913599</v>
       </c>
       <c r="V15" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:22 16384:16384" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+    <row r="16" spans="1:22 16384:16384" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>15</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
         <v>2</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="14" t="s">
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N16" s="14">
-        <v>1</v>
-      </c>
-      <c r="P16" s="14" t="s">
+      <c r="N16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Q16" s="14" t="s">
+      <c r="Q16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="R16" s="15">
+      <c r="R16" s="7">
         <v>44138.3125</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="22">
         <v>1604359800</v>
       </c>
-      <c r="T16" s="15">
+      <c r="T16" s="7">
         <v>44144.999988425923</v>
       </c>
-      <c r="U16" s="14">
+      <c r="U16" s="22">
         <v>1604937599</v>
       </c>
-      <c r="V16" s="14" t="s">
+      <c r="V16" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+    <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>16</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="14">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>3</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="14">
-        <v>1</v>
-      </c>
-      <c r="I17" s="14" t="s">
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N17" s="14">
-        <v>1</v>
-      </c>
-      <c r="P17" s="14" t="s">
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Q17" s="14" t="s">
+      <c r="Q17" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="R17" s="15">
+      <c r="R17" s="7">
         <v>44138.3125</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="22">
         <v>1604359800</v>
       </c>
-      <c r="T17" s="15">
+      <c r="T17" s="7">
         <v>44144.999988425923</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17" s="22">
         <v>1604937599</v>
       </c>
-      <c r="V17" s="14" t="s">
+      <c r="V17" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="11">
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -2042,10 +2014,10 @@
       <c r="E18" s="8">
         <v>2</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="26" t="s">
         <v>105</v>
       </c>
       <c r="H18" s="8">
@@ -2060,30 +2032,30 @@
       <c r="N18" s="3">
         <v>1</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="P18" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="Q18" s="14" t="s">
+      <c r="Q18" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R18" s="15">
+      <c r="R18" s="7">
         <v>44152.3125</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S18" s="23">
         <v>1606176000</v>
       </c>
-      <c r="T18" s="15">
+      <c r="T18" s="7">
         <v>44159.999988425923</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="22">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="11">
         <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -2095,10 +2067,10 @@
       <c r="E19" s="8">
         <v>1</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="8">
@@ -2113,305 +2085,303 @@
       <c r="N19" s="3">
         <v>1</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="P19" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="Q19" s="14" t="s">
+      <c r="Q19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="15">
+      <c r="R19" s="7">
         <v>44152.3125</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="23">
         <v>1606176000</v>
       </c>
-      <c r="T19" s="15">
+      <c r="T19" s="7">
         <v>44159.999988425923</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="22">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+    <row r="20" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="11">
         <v>19</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="18">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1</v>
-      </c>
-      <c r="F20" s="20" t="s">
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="18">
-        <v>1</v>
-      </c>
-      <c r="I20" s="20" t="s">
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="20">
-        <v>1</v>
-      </c>
-      <c r="P20" s="20" t="s">
+      <c r="N20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="Q20" s="20" t="s">
+      <c r="Q20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R20" s="21">
+      <c r="R20" s="7">
         <v>44173.333333333336</v>
       </c>
-      <c r="S20" s="18">
+      <c r="S20" s="23">
         <v>1607385600</v>
       </c>
-      <c r="T20" s="21">
+      <c r="T20" s="7">
         <v>44179.999988425923</v>
       </c>
-      <c r="U20" s="20">
+      <c r="U20" s="22">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
+    <row r="21" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="11">
         <v>20</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="20">
-        <v>0</v>
-      </c>
-      <c r="E21" s="20">
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="20">
-        <v>1</v>
-      </c>
-      <c r="I21" s="20" t="s">
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J21" s="20" t="s">
+      <c r="J21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="20">
-        <v>1</v>
-      </c>
-      <c r="P21" s="20" t="s">
+      <c r="N21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Q21" s="20" t="s">
+      <c r="Q21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="R21" s="21">
+      <c r="R21" s="7">
         <v>44173.333333333336</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21" s="23">
         <v>1607385600</v>
       </c>
-      <c r="T21" s="21">
+      <c r="T21" s="7">
         <v>44179.999988425923</v>
       </c>
-      <c r="U21" s="20">
+      <c r="U21" s="22">
         <v>1607961599</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="11">
         <v>21</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="33">
-        <v>0</v>
-      </c>
-      <c r="E22" s="33">
-        <v>1</v>
-      </c>
-      <c r="F22" s="34" t="s">
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="35">
-        <v>1</v>
-      </c>
-      <c r="I22" s="33" t="s">
+      <c r="H22" s="17">
+        <v>1</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33">
-        <v>1</v>
-      </c>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33" t="s">
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16">
+        <v>1</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="Q22" s="33" t="s">
+      <c r="Q22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="30">
-        <v>44194.333333333336</v>
-      </c>
-      <c r="S22" s="31">
-        <v>1609200000</v>
-      </c>
-      <c r="T22" s="30">
-        <v>43834.999988425923</v>
-      </c>
-      <c r="U22" s="31">
-        <v>1609775999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="25">
+      <c r="R22" s="18">
+        <v>44201.3125</v>
+      </c>
+      <c r="S22" s="20">
+        <v>1609804800</v>
+      </c>
+      <c r="T22" s="18">
+        <v>44207.999988425923</v>
+      </c>
+      <c r="U22" s="20">
+        <v>1610380799</v>
+      </c>
+      <c r="V22" s="16"/>
+    </row>
+    <row r="23" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="11">
         <v>22</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="33">
-        <v>0</v>
-      </c>
-      <c r="E23" s="33">
+      <c r="D23" s="16">
+        <v>0</v>
+      </c>
+      <c r="E23" s="16">
         <v>2</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="33">
-        <v>1</v>
-      </c>
-      <c r="I23" s="33" t="s">
+      <c r="H23" s="16">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="33" t="s">
+      <c r="J23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33">
-        <v>1</v>
-      </c>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33" t="s">
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16">
+        <v>1</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="Q23" s="33" t="s">
+      <c r="Q23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="R23" s="30">
-        <v>44194.333333333336</v>
-      </c>
-      <c r="S23" s="31">
-        <v>1609200000</v>
-      </c>
-      <c r="T23" s="30">
-        <v>43834.999988425923</v>
-      </c>
-      <c r="U23" s="31">
-        <v>1609775999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
+      <c r="R23" s="18">
+        <v>44201.3125</v>
+      </c>
+      <c r="S23" s="20">
+        <v>1609804800</v>
+      </c>
+      <c r="T23" s="18">
+        <v>44207.999988425923</v>
+      </c>
+      <c r="U23" s="20">
+        <v>1610380799</v>
+      </c>
+      <c r="V23" s="16"/>
+    </row>
+    <row r="24" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="11">
         <v>23</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="25">
-        <v>0</v>
-      </c>
-      <c r="E24" s="25">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>3</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="23">
-        <v>1</v>
-      </c>
-      <c r="I24" s="25" t="s">
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25">
-        <v>1</v>
-      </c>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25" t="s">
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="Q24" s="25" t="s">
+      <c r="Q24" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="R24" s="27">
+      <c r="R24" s="7">
         <v>44180.333333333336</v>
       </c>
-      <c r="S24" s="26">
+      <c r="S24" s="15">
         <v>1607990400</v>
       </c>
-      <c r="T24" s="27">
+      <c r="T24" s="7">
         <v>44190.999988425923</v>
       </c>
-      <c r="U24" s="28">
+      <c r="U24" s="15">
         <v>1608566399</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_1.5/activity_year_config.xlsx
+++ b/config_1.5/activity_year_config.xlsx
@@ -500,11 +500,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>元旦福利→欢乐福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>金元宝榜→星星排行榜</t>
+    <t>欢乐福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星排行榜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -988,7 +988,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_1.5/activity_year_config.xlsx
+++ b/config_1.5/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="129">
   <si>
     <t>id|行号</t>
   </si>
@@ -505,6 +505,18 @@
   </si>
   <si>
     <t>星星排行榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_041_xyxfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_041_xyxfl_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_041_xyxfl</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -985,10 +997,10 @@
   <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="V25" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2379,6 +2391,68 @@
         <v>1608566399</v>
       </c>
     </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0</v>
+      </c>
+      <c r="E25" s="17">
+        <v>3</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="17">
+        <v>1</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16">
+        <v>1</v>
+      </c>
+      <c r="O25" s="16"/>
+      <c r="P25" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R25" s="18">
+        <v>44201.3125</v>
+      </c>
+      <c r="S25" s="20">
+        <v>1609804800</v>
+      </c>
+      <c r="T25" s="18">
+        <v>44207.999988425923</v>
+      </c>
+      <c r="U25" s="20">
+        <v>1610380799</v>
+      </c>
+      <c r="V25" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="S28" s="14"/>
       <c r="T28" s="12"/>

--- a/config_1.5/activity_year_config.xlsx
+++ b/config_1.5/activity_year_config.xlsx
@@ -292,231 +292,231 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>actp_own_task_p_0818_bxfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_wxhhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_031_gqfd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_gqfd","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gqflmfs_bg_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_gqfl","share_link"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_031_wxhhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_034_ldfd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小游戏福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_030_xyxfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_034_ldfd","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_034_xyxfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameComAct1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_034_xyxfl_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_034_xyxfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>感恩礼包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_hjhhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_036_gelb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_task</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_036_gelb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_036_hjhhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12dhhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_038_s12dhhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_038_s12lhsjb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_038_s12lhsjb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬至福袋</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzhhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_039_jzhhl","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_jzsjb</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_039_jzsjb","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_034_ldfd","panel"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑换好礼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒收集榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星排行榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>activity_041_xyxfl_config</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"GameComAct1","activity_041_xyxfl_config"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_041_xyxfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>actp_own_task_p_030_xyxfl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_0818_bxfl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星换好礼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆福袋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>国庆福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_wxhhl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_031_gqfd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_031_gqfd","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>image</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>gqflmfs_bg_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_031_gqfl","share_link"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_031_wxhhl","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_buy_gift_bag_class_031_gqfd_gift</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>立冬福袋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_task</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_034_ldfd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_task</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小游戏福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_030_xyxfl_config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_034_ldfd","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_034_xyxfl_config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameComAct1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","activity_034_xyxfl_config"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_034_xyxfl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>感恩礼包</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火鸡换好礼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_036_hjhhl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_036_gelb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_task</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_task</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_036_gelb","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_036_hjhhl","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12dhhl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_038_s12dhhl","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_038_s12lhsjb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_038_s12lhsjb","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冬至福袋</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_jzhhl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_039_jzhhl","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_039_jzsjb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_039_jzsjb","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_034_ldfd","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>hot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑换好礼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒收集榜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星排行榜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>activity_041_xyxfl_config</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"GameComAct1","activity_041_xyxfl_config"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_041_xyxfl</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -997,10 +997,10 @@
   <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V25" sqref="V25"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1497,7 +1497,7 @@
         <v>1598284799</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:22 16384:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1691,7 +1691,7 @@
         <v>23</v>
       </c>
       <c r="H12" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>27</v>
@@ -1700,7 +1700,7 @@
         <v>28</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -1727,7 +1727,7 @@
         <v>1610380799</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1738,7 +1738,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="8">
         <v>0</v>
@@ -1747,13 +1747,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>27</v>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>49</v>
@@ -1783,7 +1783,7 @@
         <v>1601913599</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1794,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
@@ -1803,25 +1803,25 @@
         <v>2</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N14" s="3">
         <v>1</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>49</v>
@@ -1839,7 +1839,7 @@
         <v>1601913599</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -1850,7 +1850,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -1862,19 +1862,19 @@
         <v>23</v>
       </c>
       <c r="H15" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>49</v>
@@ -1892,7 +1892,7 @@
         <v>1601913599</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:22 16384:16384" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -1903,7 +1903,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="8">
         <v>0</v>
@@ -1912,28 +1912,28 @@
         <v>2</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N16" s="3">
         <v>1</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R16" s="7">
         <v>44138.3125</v>
@@ -1948,7 +1948,7 @@
         <v>1604937599</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1959,7 +1959,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
@@ -1968,31 +1968,31 @@
         <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G17" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="K17" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N17" s="3">
         <v>1</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R17" s="7">
         <v>44138.3125</v>
@@ -2007,7 +2007,7 @@
         <v>1604937599</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -2018,7 +2018,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
@@ -2027,25 +2027,25 @@
         <v>2</v>
       </c>
       <c r="F18" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="26" t="s">
-        <v>105</v>
-      </c>
       <c r="H18" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>49</v>
@@ -2071,34 +2071,34 @@
         <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="G19" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N19" s="3">
         <v>1</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>49</v>
@@ -2124,7 +2124,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -2133,13 +2133,13 @@
         <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G20" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>27</v>
@@ -2151,7 +2151,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>49</v>
@@ -2177,7 +2177,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2186,13 +2186,13 @@
         <v>2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>27</v>
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>49</v>
@@ -2230,7 +2230,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="16">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>23</v>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="O22" s="16"/>
       <c r="P22" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="16" t="s">
         <v>49</v>
@@ -2288,7 +2288,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" s="16">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G23" s="27" t="s">
         <v>23</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="O23" s="16"/>
       <c r="P23" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q23" s="16" t="s">
         <v>49</v>
@@ -2346,7 +2346,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>23</v>
@@ -2373,10 +2373,10 @@
         <v>1</v>
       </c>
       <c r="P24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="R24" s="7">
         <v>44180.333333333336</v>
@@ -2399,7 +2399,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D25" s="17">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>28</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="16" t="s">
         <v>22</v>
@@ -2450,7 +2450,7 @@
         <v>1610380799</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">

--- a/config_1.5/activity_year_config.xlsx
+++ b/config_1.5/activity_year_config.xlsx
@@ -464,14 +464,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>act_039_jzhhl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"act_039_jzhhl","panel"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>act_039_jzsjb</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -517,6 +509,14 @@
   </si>
   <si>
     <t>actp_own_task_p_030_xyxfl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_039_ty_by_hhl</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_039_ty_by_hhl","panel"</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -997,10 +997,10 @@
   <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1727,7 +1727,7 @@
         <v>1610380799</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:22 16384:16384" x14ac:dyDescent="0.2">
@@ -2124,7 +2124,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D21" s="3">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D22" s="16">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G22" s="27" t="s">
         <v>23</v>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="O22" s="16"/>
       <c r="P22" s="16" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="16" t="s">
         <v>49</v>
@@ -2288,7 +2288,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D23" s="16">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>2</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G23" s="27" t="s">
         <v>23</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="O23" s="16"/>
       <c r="P23" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="16" t="s">
         <v>49</v>
@@ -2373,10 +2373,10 @@
         <v>1</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R24" s="7">
         <v>44180.333333333336</v>
@@ -2423,7 +2423,7 @@
         <v>28</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="O25" s="16"/>
       <c r="P25" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q25" s="16" t="s">
         <v>22</v>
@@ -2450,7 +2450,7 @@
         <v>1610380799</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
